--- a/DevolopingDocuments/06.测试/协同办公系统测试报告清单_2007-7-21.xlsx
+++ b/DevolopingDocuments/06.测试/协同办公系统测试报告清单_2007-7-21.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11651\Desktop\GitHub\CSI-Excellent-Shopping-Mall\DevolopingDocuments\06.测试\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E1BC4-67DE-4B68-93CB-76BA0C1747D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="972" yWindow="924" windowWidth="19200" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,10 +128,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>余斐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>该问题已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,13 +213,17 @@
   </si>
   <si>
     <t>Jenny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -254,16 +260,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -340,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -412,9 +421,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -432,11 +438,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -510,9 +524,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,6 +576,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -719,34 +769,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="41.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="9" style="5"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="4"/>
-    <col min="9" max="9" width="9.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="13.5">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="14.4">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -809,19 +859,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="D4" s="12">
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="G4" s="13">
         <v>39284</v>
@@ -878,14 +928,14 @@
       <c r="G6" s="13">
         <v>39284</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="13">
+        <v>39284</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="13">
-        <v>39284</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="26.25" customHeight="1">
@@ -893,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="12">
         <v>3</v>
@@ -919,10 +969,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12">
         <v>3</v>
@@ -945,10 +995,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="12">
         <v>3</v>
@@ -971,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="12">
         <v>3</v>
@@ -999,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="12">
         <v>3</v>
@@ -1027,25 +1077,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="28">
+        <v>3</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="29">
-        <v>3</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="30">
-        <v>39284</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
+      <c r="G12" s="29">
+        <v>39284</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1">
@@ -1053,25 +1103,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="28">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="29">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="30">
-        <v>39284</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
+      <c r="F13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="29">
+        <v>39284</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="41.25" customHeight="1">
@@ -1079,25 +1129,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>2</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="30">
-        <v>39284</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
+      <c r="G14" s="29">
+        <v>39284</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="41.25" customHeight="1">
@@ -1124,7 +1174,7 @@
       <c r="I16" s="26"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:9" s="18" customFormat="1" ht="12.75">
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="14.4">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1182,7 @@
       <c r="G17" s="19"/>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" ht="12.75">
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="14.4">
       <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
@@ -1140,7 +1190,7 @@
       <c r="G18" s="22"/>
       <c r="I18" s="22"/>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" ht="12.75">
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="14.4">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
@@ -1156,12 +1206,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,15 +1219,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1231,6 +1282,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1239,20 +1296,33 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF67D3EF-6D5F-4ACC-A5E2-45F1EF5626EE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF67D3EF-6D5F-4ACC-A5E2-45F1EF5626EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0902F15-04FF-432A-832D-2010249DDA27}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082AFE99-810B-4A2C-BF99-10C0BCC768A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082AFE99-810B-4A2C-BF99-10C0BCC768A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0902F15-04FF-432A-832D-2010249DDA27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>